--- a/TABLE HOSPITAL MANAGEMENT.xlsx
+++ b/TABLE HOSPITAL MANAGEMENT.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>DOCTOR</t>
   </si>
@@ -80,9 +80,6 @@
     <t>BILLS</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>PATIENT ID</t>
   </si>
   <si>
@@ -90,12 +87,45 @@
   </si>
   <si>
     <t>BILL ID</t>
+  </si>
+  <si>
+    <t>DIAGNOSE</t>
+  </si>
+  <si>
+    <t>WAY OF HOSPITALIZATION</t>
+  </si>
+  <si>
+    <t>DOSE</t>
+  </si>
+  <si>
+    <t>WAY OF ADMINISTRATION</t>
+  </si>
+  <si>
+    <t>COST PER DAY</t>
+  </si>
+  <si>
+    <t>NURSE</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>DOCTOR ID</t>
+  </si>
+  <si>
+    <t>NURSE ID</t>
+  </si>
+  <si>
+    <t>TREATMENT TYPE</t>
+  </si>
+  <si>
+    <t>ADRESS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +169,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC66FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,19 +197,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC66FF"/>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFFF33CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -475,25 +526,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -506,31 +557,28 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -547,15 +595,21 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -569,15 +623,30 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -593,13 +662,16 @@
       <c r="E23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -607,10 +679,37 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
         <v>18</v>
       </c>
-      <c r="D28" t="s">
-        <v>19</v>
+    </row>
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/TABLE HOSPITAL MANAGEMENT.xlsx
+++ b/TABLE HOSPITAL MANAGEMENT.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inesu\OneDrive\Documentos\2º INGENIERIA BIOMEDICA\2º SEMESTRE\DATA BASES\Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ainhoarey/Documents/GitHub/Hospital-Management-System/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>DOCTOR</t>
   </si>
@@ -56,9 +62,6 @@
     <t>TREATMENT</t>
   </si>
   <si>
-    <t>DURATION</t>
-  </si>
-  <si>
     <t>COST</t>
   </si>
   <si>
@@ -116,16 +119,40 @@
     <t>NURSE ID</t>
   </si>
   <si>
-    <t>TREATMENT TYPE</t>
-  </si>
-  <si>
-    <t>ADRESS</t>
+    <t>PHOTO</t>
+  </si>
+  <si>
+    <t>START DATE</t>
+  </si>
+  <si>
+    <t>END DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TREATMENT TYPE</t>
+  </si>
+  <si>
+    <t>TOTAL COST</t>
+  </si>
+  <si>
+    <t>BANK ID</t>
+  </si>
+  <si>
+    <t>PAID</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>USER ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -206,6 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,25 +560,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -557,28 +593,19 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -595,102 +622,105 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
       <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -698,18 +728,40 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
